--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="10000"/>
   </bookViews>
   <sheets>
-    <sheet name="Transactions" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Transactions" state="show" r:id="rId4"/>
+    <sheet sheetId="2" name="Transactions" state="show" r:id="rId5"/>
+    <sheet sheetId="3" name="Transactions" state="show" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Oskar</t>
   </si>
@@ -26,18 +31,145 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>OSkar</t>
+  </si>
+  <si>
+    <t>124343</t>
+  </si>
+  <si>
+    <t>H&amp;M B</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>199324334</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>fjaslfjf</t>
+  </si>
+  <si>
+    <t>jsdölf</t>
+  </si>
+  <si>
+    <t>jdsflkdsjf</t>
+  </si>
+  <si>
+    <t>fjkdslafds</t>
+  </si>
+  <si>
+    <t>fjdslkfaöjfa</t>
+  </si>
+  <si>
+    <t>jfdslkfajdsf</t>
+  </si>
+  <si>
+    <t>fjdskalföjdsal</t>
+  </si>
+  <si>
+    <t>jfkdsjfalkf</t>
+  </si>
+  <si>
+    <t>asdfdsaf</t>
+  </si>
+  <si>
+    <t>212131</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Osk</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>2121212</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>FING B</t>
+  </si>
+  <si>
+    <t>12121212</t>
+  </si>
+  <si>
+    <t>21012012012</t>
+  </si>
+  <si>
+    <t>Registered at</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Personal identification number</t>
+  </si>
+  <si>
+    <t>Name of security</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>Date of transaction</t>
+  </si>
+  <si>
+    <t>Transaction type</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Transaction value</t>
+  </si>
+  <si>
+    <t>19930718-111</t>
+  </si>
+  <si>
+    <t>SE12345678</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Oskar Drugge</t>
+  </si>
+  <si>
+    <t>19930718-1111</t>
+  </si>
+  <si>
+    <t>SE1233435000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,42 +189,376 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="1">
-    <xf applyFont="1" fontId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43412.49043884259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43412.49565732639</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43412.533019270835</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43412.55801710648</v>
+      </c>
+      <c r="J5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43412.55948023148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43412.55986657407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43412.491575775464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43412.49489180556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>
--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>Oskar</t>
   </si>
@@ -111,6 +111,27 @@
     <t>21012012012</t>
   </si>
   <si>
+    <t>Oskar Drugge</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>11233</t>
+  </si>
+  <si>
+    <t>20138</t>
+  </si>
+  <si>
+    <t>ATCO A</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>200101</t>
+  </si>
+  <si>
     <t>Registered at</t>
   </si>
   <si>
@@ -148,9 +169,6 @@
   </si>
   <si>
     <t>150</t>
-  </si>
-  <si>
-    <t>Oskar Drugge</t>
   </si>
   <si>
     <t>19930718-1111</t>
@@ -214,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -406,6 +424,70 @@
       </c>
       <c r="J7">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43412.652885868054</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43412.65331583333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -420,34 +502,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -458,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -473,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -495,34 +577,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -530,16 +612,16 @@
         <v>43412.49489180556</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Oskar</t>
   </si>
@@ -132,6 +132,18 @@
     <t>200101</t>
   </si>
   <si>
+    <t>19930718-1111</t>
+  </si>
+  <si>
+    <t>SE0000106270</t>
+  </si>
+  <si>
+    <t>2018-11-02</t>
+  </si>
+  <si>
+    <t>200,2</t>
+  </si>
+  <si>
     <t>Registered at</t>
   </si>
   <si>
@@ -169,9 +181,6 @@
   </si>
   <si>
     <t>150</t>
-  </si>
-  <si>
-    <t>19930718-1111</t>
   </si>
   <si>
     <t>SE1233435000</t>
@@ -232,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -488,6 +497,38 @@
       </c>
       <c r="J9">
         <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43413.53868383102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>40040</v>
       </c>
     </row>
   </sheetData>
@@ -502,34 +543,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -555,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -577,34 +618,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -615,13 +656,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
